--- a/app/dummy_data.xlsx
+++ b/app/dummy_data.xlsx
@@ -475,58 +475,58 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Clemmie</v>
+        <v>Lynn</v>
       </c>
       <c r="B2" t="str">
-        <v>Quinn</v>
+        <v>August</v>
       </c>
       <c r="C2" t="str">
-        <v>Macejkovic</v>
+        <v>Welch</v>
       </c>
       <c r="D2" t="str">
-        <v>719.615.8062 x77927</v>
+        <v>1-608-201-7116 x4019</v>
       </c>
       <c r="E2" t="str">
-        <v>1975-05-18</v>
+        <v>1987-04-03</v>
       </c>
       <c r="F2" t="str">
-        <v>OBC</v>
+        <v>SC</v>
       </c>
       <c r="G2" t="str">
-        <v>Christian</v>
+        <v>Other</v>
       </c>
       <c r="H2" t="str">
         <v>Retired</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L2" t="str">
-        <v>Adams - Gerhold</v>
+        <v>Prohaska Inc</v>
       </c>
       <c r="M2" t="str">
-        <v>Chief Interactions Supervisor</v>
+        <v>District Web Coordinator</v>
       </c>
       <c r="N2" t="str">
-        <v>2018-11-20</v>
+        <v>2017-06-04</v>
       </c>
       <c r="O2" t="str">
-        <v>Contractual</v>
+        <v>Permanent</v>
       </c>
       <c r="P2" t="str">
-        <v>Murazik, Harber and Kerluke</v>
+        <v>Harber, Runolfsson and Von</v>
       </c>
       <c r="Q2" t="str">
-        <v>Nuclear</v>
+        <v>Joint</v>
       </c>
       <c r="R2" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"No","age":22,"institution_information":{"name_of_institution":"Kiehn LLC","state_of_institution":"Arizona","club":"Hilll - Kling","beneficiary_scheme":["Corwin and Sons","Lebsack - Moen"]},"associated_association":{"name_of_organization":"Fahey LLC","phone":"(383) 371-5527","in_leadership_role":"Yes"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"Yes","age":39,"institution_information":{"name_of_institution":"Murazik, Connelly and Cummings","state_of_institution":"Nevada","club":"Bergstrom - Hane","beneficiary_scheme":["McGlynn, Stoltenberg and Terry","Hilpert Inc"]},"associated_association":{"name_of_organization":"Pfannerstill - Lehner","phone":"861-797-1576","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S2" t="str">
         <v>Active</v>
@@ -538,7 +538,7 @@
         <v>No</v>
       </c>
       <c r="V2" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W2" t="str">
         <v>[{"question":"Will you play role in your residing area?","answer":"Yes"},{"question":"Will you be able to organize people to join in a movement?","answer":"Yes"},{"question":"Do you believe in the movement?","answer":"Yes"},{"question":"Can you motivate other family members towards organizational goals?","answer":"Yes"},{"question":"What form of movements attracts you?","answer":"NA"},{"question":"Compliers Note","answer":"NA"}]</v>
@@ -546,67 +546,67 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mia</v>
+        <v>Haleigh</v>
       </c>
       <c r="B3" t="str">
-        <v>Parker</v>
+        <v>Jaden</v>
       </c>
       <c r="C3" t="str">
-        <v>King</v>
+        <v>Cartwright</v>
       </c>
       <c r="D3" t="str">
-        <v>539-682-2086 x059</v>
+        <v>941.203.2788 x8711</v>
       </c>
       <c r="E3" t="str">
-        <v>1993-02-01</v>
+        <v>1972-07-20</v>
       </c>
       <c r="F3" t="str">
-        <v>OBC</v>
+        <v>General</v>
       </c>
       <c r="G3" t="str">
-        <v>Other</v>
+        <v>Buddhist</v>
       </c>
       <c r="H3" t="str">
-        <v>Working</v>
+        <v>Retired</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
       <c r="L3" t="str">
-        <v>D'Amore and Sons</v>
+        <v>Cole LLC</v>
       </c>
       <c r="M3" t="str">
-        <v>Product Group Coordinator</v>
+        <v>District Assurance Manager</v>
       </c>
       <c r="N3" t="str">
-        <v>2020-07-22</v>
+        <v>2022-06-18</v>
       </c>
       <c r="O3" t="str">
         <v>Contractual</v>
       </c>
       <c r="P3" t="str">
-        <v>Pfeffer and Sons</v>
+        <v>Macejkovic Group</v>
       </c>
       <c r="Q3" t="str">
         <v>Nuclear</v>
       </c>
       <c r="R3" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":20,"institution_information":{"name_of_institution":"Conroy, Wiza and Kris","state_of_institution":"Missouri","club":"Windler, Robel and Nikolaus","beneficiary_scheme":["Harris Inc","Champlin LLC"]},"associated_association":{"name_of_organization":"McLaughlin - Herman","phone":"871-614-2157 x836","in_leadership_role":"Yes"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":13,"institution_information":{"name_of_institution":"Kilback LLC","state_of_institution":"Georgia","club":"Trantow, O'Kon and Abbott","beneficiary_scheme":["Fritsch Inc","DuBuque, Blick and Mills"]},"associated_association":{"name_of_organization":"Doyle, Swaniawski and Ondricka","phone":"1-740-401-1843 x807","in_leadership_role":"No"}}]</v>
       </c>
       <c r="S3" t="str">
         <v>Active</v>
       </c>
       <c r="T3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="U3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="V3" t="str">
         <v>No</v>
@@ -617,67 +617,67 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Luis</v>
+        <v>Audrey</v>
       </c>
       <c r="B4" t="str">
-        <v>Billie</v>
+        <v>Emerson</v>
       </c>
       <c r="C4" t="str">
-        <v>Collins</v>
+        <v>Beier</v>
       </c>
       <c r="D4" t="str">
-        <v>767.823.9519</v>
+        <v>(300) 938-8450 x9964</v>
       </c>
       <c r="E4" t="str">
-        <v>1956-06-16</v>
+        <v>1979-10-24</v>
       </c>
       <c r="F4" t="str">
-        <v>OBC</v>
+        <v>ST</v>
       </c>
       <c r="G4" t="str">
-        <v>Hindu</v>
+        <v>Buddhist</v>
       </c>
       <c r="H4" t="str">
         <v>Retired</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="str">
-        <v>Ritchie - Rodriguez</v>
+        <v>Hammes - Shanahan</v>
       </c>
       <c r="M4" t="str">
-        <v>Central Brand Designer</v>
+        <v>Dynamic Applications Orchestrator</v>
       </c>
       <c r="N4" t="str">
-        <v>2018-10-13</v>
+        <v>2015-07-17</v>
       </c>
       <c r="O4" t="str">
         <v>Contractual</v>
       </c>
       <c r="P4" t="str">
-        <v>Lakin, Von and McDermott</v>
+        <v>Schuppe - Stamm</v>
       </c>
       <c r="Q4" t="str">
         <v>Nuclear</v>
       </c>
       <c r="R4" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":27,"institution_information":{"name_of_institution":"Schuster Inc","state_of_institution":"Minnesota","club":"Quigley, Mohr and Rippin","beneficiary_scheme":["O'Connell Group","Wyman and Sons"]},"associated_association":{"name_of_organization":"Haley, Cormier and Bahringer","phone":"(511) 237-0507 x28568","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"Yes","age":7,"institution_information":{"name_of_institution":"Bashirian - Torp","state_of_institution":"Oregon","club":"Watsica, O'Hara and Okuneva","beneficiary_scheme":["Gislason, Smitham and Hermiston","Rippin LLC"]},"associated_association":{"name_of_organization":"Little - Green","phone":"(975) 378-0437 x14539","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S4" t="str">
         <v>Active</v>
       </c>
       <c r="T4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V4" t="str">
         <v>No</v>
@@ -688,58 +688,58 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Lynn</v>
+        <v>Jarod</v>
       </c>
       <c r="B5" t="str">
-        <v>Jules</v>
+        <v>Ellis</v>
       </c>
       <c r="C5" t="str">
-        <v>Gerlach</v>
+        <v>Cremin</v>
       </c>
       <c r="D5" t="str">
-        <v>(547) 605-4696 x074</v>
+        <v>904-245-7462 x52883</v>
       </c>
       <c r="E5" t="str">
-        <v>1956-05-14</v>
+        <v>1987-06-20</v>
       </c>
       <c r="F5" t="str">
-        <v>ST</v>
+        <v>OBC</v>
       </c>
       <c r="G5" t="str">
-        <v>Muslim</v>
+        <v>Other</v>
       </c>
       <c r="H5" t="str">
         <v>Retired</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="str">
-        <v>Hoppe and Sons</v>
+        <v>Casper, Kirlin and Sipes</v>
       </c>
       <c r="M5" t="str">
-        <v>Future Optimization Officer</v>
+        <v>Lead Directives Consultant</v>
       </c>
       <c r="N5" t="str">
-        <v>2020-03-02</v>
+        <v>2023-10-04</v>
       </c>
       <c r="O5" t="str">
         <v>Permanent</v>
       </c>
       <c r="P5" t="str">
-        <v>D'Amore - Green</v>
+        <v>Huels LLC</v>
       </c>
       <c r="Q5" t="str">
-        <v>Nuclear</v>
+        <v>Joint</v>
       </c>
       <c r="R5" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"Yes","age":65,"institution_information":{"name_of_institution":"Mayer - Beier","state_of_institution":"Michigan","club":"Rath - Davis","beneficiary_scheme":["Reilly Inc","Rodriguez Inc"]},"associated_association":{"name_of_organization":"Smith, Romaguera and Pouros","phone":"867-618-3262 x776","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"Yes","age":26,"institution_information":{"name_of_institution":"Becker and Sons","state_of_institution":"Louisiana","club":"Luettgen - Fay","beneficiary_scheme":["Prosacco and Sons","Gerhold, Dibbert and Witting"]},"associated_association":{"name_of_organization":"Glover - Rolfson","phone":"351.688.9352 x76756","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S5" t="str">
         <v>Active</v>
@@ -748,7 +748,7 @@
         <v>Yes</v>
       </c>
       <c r="U5" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V5" t="str">
         <v>No</v>
@@ -759,70 +759,70 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Gussie</v>
+        <v>Maud</v>
       </c>
       <c r="B6" t="str">
-        <v>Blake</v>
+        <v>Rowan</v>
       </c>
       <c r="C6" t="str">
-        <v>Hermann</v>
+        <v>Bosco</v>
       </c>
       <c r="D6" t="str">
-        <v>1-234-259-7707 x913</v>
+        <v>873-266-3604 x65013</v>
       </c>
       <c r="E6" t="str">
-        <v>1970-03-11</v>
+        <v>1986-01-05</v>
       </c>
       <c r="F6" t="str">
-        <v>General</v>
+        <v>SC</v>
       </c>
       <c r="G6" t="str">
-        <v>Hindu</v>
+        <v>Muslim</v>
       </c>
       <c r="H6" t="str">
         <v>Working</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L6" t="str">
-        <v>Pacocha and Sons</v>
+        <v>Little Inc</v>
       </c>
       <c r="M6" t="str">
-        <v>Internal Security Planner</v>
+        <v>Corporate Configuration Developer</v>
       </c>
       <c r="N6" t="str">
-        <v>2021-07-10</v>
+        <v>2016-03-31</v>
       </c>
       <c r="O6" t="str">
-        <v>Permanent</v>
+        <v>Contractual</v>
       </c>
       <c r="P6" t="str">
-        <v>Wyman - Powlowski</v>
+        <v>Heidenreich, Cormier and Murray</v>
       </c>
       <c r="Q6" t="str">
-        <v>Nuclear</v>
+        <v>Joint</v>
       </c>
       <c r="R6" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"Yes","age":19,"institution_information":{"name_of_institution":"Frami, Koelpin and Lockman","state_of_institution":"South Carolina","club":"Koepp, Mraz and Reichel","beneficiary_scheme":["Lockman Inc","Bruen LLC"]},"associated_association":{"name_of_organization":"Abernathy - Trantow","phone":"683.643.8333","in_leadership_role":"Yes"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":78,"institution_information":{"name_of_institution":"Prosacco - Kozey","state_of_institution":"Ohio","club":"D'Amore LLC","beneficiary_scheme":["Ritchie, Harber and Tillman","Gorczany - Ankunding"]},"associated_association":{"name_of_organization":"Armstrong, Labadie and Waelchi","phone":"(759) 727-7822 x76191","in_leadership_role":"No"}}]</v>
       </c>
       <c r="S6" t="str">
         <v>Active</v>
       </c>
       <c r="T6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="U6" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="W6" t="str">
         <v>[{"question":"Will you play role in your residing area?","answer":"Yes"},{"question":"Will you be able to organize people to join in a movement?","answer":"Yes"},{"question":"Do you believe in the movement?","answer":"Yes"},{"question":"Can you motivate other family members towards organizational goals?","answer":"Yes"},{"question":"What form of movements attracts you?","answer":"NA"},{"question":"Compliers Note","answer":"NA"}]</v>
@@ -830,58 +830,58 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Brooke</v>
+        <v>Dora</v>
       </c>
       <c r="B7" t="str">
-        <v>Ellis</v>
+        <v>Noah</v>
       </c>
       <c r="C7" t="str">
-        <v>Vandervort</v>
+        <v>Legros</v>
       </c>
       <c r="D7" t="str">
-        <v>527.790.0191 x91862</v>
+        <v>1-928-389-8374</v>
       </c>
       <c r="E7" t="str">
-        <v>1992-10-28</v>
+        <v>1985-09-12</v>
       </c>
       <c r="F7" t="str">
-        <v>General</v>
+        <v>OBC</v>
       </c>
       <c r="G7" t="str">
         <v>Buddhist</v>
       </c>
       <c r="H7" t="str">
-        <v>Working</v>
+        <v>Retired</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L7" t="str">
-        <v>Krajcik and Sons</v>
+        <v>Bailey Inc</v>
       </c>
       <c r="M7" t="str">
-        <v>National Security Designer</v>
+        <v>Internal Research Liaison</v>
       </c>
       <c r="N7" t="str">
-        <v>2023-10-17</v>
+        <v>2018-01-23</v>
       </c>
       <c r="O7" t="str">
-        <v>Permanent</v>
+        <v>Contractual</v>
       </c>
       <c r="P7" t="str">
-        <v>Lemke, Bernier and Gleason</v>
+        <v>Torp, Streich and Streich</v>
       </c>
       <c r="Q7" t="str">
         <v>Nuclear</v>
       </c>
       <c r="R7" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"Yes","age":70,"institution_information":{"name_of_institution":"Boyer LLC","state_of_institution":"Iowa","club":"Sanford, Luettgen and Beer","beneficiary_scheme":["Welch, Cronin and Bernhard","Champlin LLC"]},"associated_association":{"name_of_organization":"Harber - Gerlach","phone":"929.226.8233 x650","in_leadership_role":"Yes"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"No","age":99,"institution_information":{"name_of_institution":"Rau Inc","state_of_institution":"Maine","club":"Ryan - Pagac","beneficiary_scheme":["Wuckert - Anderson","Lueilwitz Group"]},"associated_association":{"name_of_organization":"Gulgowski, Runte and Volkman","phone":"720.502.2012 x083","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S7" t="str">
         <v>Active</v>
@@ -890,10 +890,10 @@
         <v>No</v>
       </c>
       <c r="U7" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V7" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W7" t="str">
         <v>[{"question":"Will you play role in your residing area?","answer":"Yes"},{"question":"Will you be able to organize people to join in a movement?","answer":"Yes"},{"question":"Do you believe in the movement?","answer":"Yes"},{"question":"Can you motivate other family members towards organizational goals?","answer":"Yes"},{"question":"What form of movements attracts you?","answer":"NA"},{"question":"Compliers Note","answer":"NA"}]</v>
@@ -901,70 +901,70 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Julie</v>
+        <v>Niko</v>
       </c>
       <c r="B8" t="str">
-        <v>Billie</v>
+        <v>Sasha</v>
       </c>
       <c r="C8" t="str">
-        <v>Willms</v>
+        <v>Wiza</v>
       </c>
       <c r="D8" t="str">
-        <v>1-496-983-1877 x154</v>
+        <v>780-816-8607 x21339</v>
       </c>
       <c r="E8" t="str">
-        <v>1997-08-24</v>
+        <v>1971-09-26</v>
       </c>
       <c r="F8" t="str">
-        <v>SC</v>
+        <v>ST</v>
       </c>
       <c r="G8" t="str">
-        <v>Muslim</v>
+        <v>Hindu</v>
       </c>
       <c r="H8" t="str">
         <v>Retired</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
       <c r="L8" t="str">
-        <v>Russel - Fahey</v>
+        <v>Kertzmann, Balistreri and Gibson</v>
       </c>
       <c r="M8" t="str">
-        <v>Legacy Markets Analyst</v>
+        <v>Direct Marketing Associate</v>
       </c>
       <c r="N8" t="str">
-        <v>2018-11-14</v>
+        <v>2021-06-17</v>
       </c>
       <c r="O8" t="str">
-        <v>Permanent</v>
+        <v>Contractual</v>
       </c>
       <c r="P8" t="str">
-        <v>Tillman LLC</v>
+        <v>Littel, Lindgren and Kling</v>
       </c>
       <c r="Q8" t="str">
-        <v>Nuclear</v>
+        <v>Joint</v>
       </c>
       <c r="R8" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":52,"institution_information":{"name_of_institution":"Ankunding, Kertzmann and Reinger","state_of_institution":"Washington","club":"Beahan - Feeney","beneficiary_scheme":["Robel Group","Macejkovic - Gibson"]},"associated_association":{"name_of_organization":"Torp and Sons","phone":"328.983.6160 x14777","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":76,"institution_information":{"name_of_institution":"Monahan, Koss and Fay","state_of_institution":"Alaska","club":"Powlowski, Kertzmann and King","beneficiary_scheme":["Funk LLC","Kutch - Dicki"]},"associated_association":{"name_of_organization":"Bauch, MacGyver and Hamill","phone":"(345) 635-5318 x94370","in_leadership_role":"No"}}]</v>
       </c>
       <c r="S8" t="str">
         <v>Active</v>
       </c>
       <c r="T8" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="U8" t="str">
         <v>Yes</v>
       </c>
       <c r="V8" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W8" t="str">
         <v>[{"question":"Will you play role in your residing area?","answer":"Yes"},{"question":"Will you be able to organize people to join in a movement?","answer":"Yes"},{"question":"Do you believe in the movement?","answer":"Yes"},{"question":"Can you motivate other family members towards organizational goals?","answer":"Yes"},{"question":"What form of movements attracts you?","answer":"NA"},{"question":"Compliers Note","answer":"NA"}]</v>
@@ -972,64 +972,64 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jeff</v>
+        <v>Elmo</v>
       </c>
       <c r="B9" t="str">
         <v>Reign</v>
       </c>
       <c r="C9" t="str">
-        <v>Skiles</v>
+        <v>Sipes</v>
       </c>
       <c r="D9" t="str">
-        <v>1-586-808-6763 x967</v>
+        <v>1-913-660-8333 x198</v>
       </c>
       <c r="E9" t="str">
-        <v>1970-10-29</v>
+        <v>1952-11-13</v>
       </c>
       <c r="F9" t="str">
         <v>SC</v>
       </c>
       <c r="G9" t="str">
-        <v>Other</v>
+        <v>Muslim</v>
       </c>
       <c r="H9" t="str">
-        <v>Working</v>
+        <v>Retired</v>
       </c>
       <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9" t="str">
-        <v>Larson, Carroll and Lindgren</v>
+        <v>Nicolas and Sons</v>
       </c>
       <c r="M9" t="str">
-        <v>Global Solutions Planner</v>
+        <v>Human Applications Engineer</v>
       </c>
       <c r="N9" t="str">
-        <v>2018-11-05</v>
+        <v>2014-12-02</v>
       </c>
       <c r="O9" t="str">
-        <v>Permanent</v>
+        <v>Contractual</v>
       </c>
       <c r="P9" t="str">
-        <v>Kutch and Sons</v>
+        <v>Jacobi Inc</v>
       </c>
       <c r="Q9" t="str">
-        <v>Joint</v>
+        <v>Nuclear</v>
       </c>
       <c r="R9" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"Yes","age":15,"institution_information":{"name_of_institution":"Roob, Strosin and Steuber","state_of_institution":"West Virginia","club":"Schmitt, Fay and Buckridge","beneficiary_scheme":["Cummings, Douglas and Pollich","Lehner, Schroeder and Jast"]},"associated_association":{"name_of_organization":"Luettgen, Daugherty and Abshire","phone":"307.446.0502 x699","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"Yes","age":63,"institution_information":{"name_of_institution":"Smith - Dickens","state_of_institution":"Louisiana","club":"Torp - Reynolds","beneficiary_scheme":["Hermiston LLC","McClure - Dare"]},"associated_association":{"name_of_organization":"Kiehn - Armstrong","phone":"1-917-285-4331 x942","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S9" t="str">
         <v>Active</v>
       </c>
       <c r="T9" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U9" t="str">
         <v>No</v>
@@ -1043,58 +1043,58 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Braeden</v>
+        <v>Hassan</v>
       </c>
       <c r="B10" t="str">
-        <v>James</v>
+        <v>Elliott</v>
       </c>
       <c r="C10" t="str">
-        <v>Dare</v>
+        <v>Wilkinson</v>
       </c>
       <c r="D10" t="str">
-        <v>597.471.8306 x81639</v>
+        <v>1-245-571-7579 x786</v>
       </c>
       <c r="E10" t="str">
-        <v>1982-12-10</v>
+        <v>1991-12-10</v>
       </c>
       <c r="F10" t="str">
-        <v>ST</v>
+        <v>SC</v>
       </c>
       <c r="G10" t="str">
-        <v>Muslim</v>
+        <v>Hindu</v>
       </c>
       <c r="H10" t="str">
         <v>Working</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L10" t="str">
-        <v>McKenzie, Baumbach and Okuneva</v>
+        <v>Gottlieb LLC</v>
       </c>
       <c r="M10" t="str">
-        <v>Chief Tactics Supervisor</v>
+        <v>Forward Communications Designer</v>
       </c>
       <c r="N10" t="str">
-        <v>2017-04-14</v>
+        <v>2022-03-30</v>
       </c>
       <c r="O10" t="str">
-        <v>Permanent</v>
+        <v>Contractual</v>
       </c>
       <c r="P10" t="str">
-        <v>Fay - Lindgren</v>
+        <v>O'Connell and Sons</v>
       </c>
       <c r="Q10" t="str">
-        <v>Nuclear</v>
+        <v>Joint</v>
       </c>
       <c r="R10" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"No","age":60,"institution_information":{"name_of_institution":"McClure - McKenzie","state_of_institution":"California","club":"Reilly - Jerde","beneficiary_scheme":["Schmeler, Zieme and Ankunding","Ledner, Hahn and Block"]},"associated_association":{"name_of_organization":"Hammes, Runolfsdottir and Hermiston","phone":"211.791.1359 x15244","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"Yes","age":17,"institution_information":{"name_of_institution":"Schulist, Kirlin and Bruen","state_of_institution":"North Carolina","club":"Bergstrom - Harber","beneficiary_scheme":["Brown, Murazik and Kozey","Yost - Jakubowski"]},"associated_association":{"name_of_organization":"Tillman - Effertz","phone":"1-627-914-8402 x65945","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S10" t="str">
         <v>Active</v>
@@ -1114,70 +1114,70 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Marjolaine</v>
+        <v>Germaine</v>
       </c>
       <c r="B11" t="str">
-        <v>Rowan</v>
+        <v>Dakota</v>
       </c>
       <c r="C11" t="str">
-        <v>Dibbert</v>
+        <v>Grimes</v>
       </c>
       <c r="D11" t="str">
-        <v>(770) 904-6687 x2917</v>
+        <v>(431) 409-1741 x06769</v>
       </c>
       <c r="E11" t="str">
-        <v>1994-01-10</v>
+        <v>1950-03-11</v>
       </c>
       <c r="F11" t="str">
-        <v>OBC</v>
+        <v>SC</v>
       </c>
       <c r="G11" t="str">
-        <v>Hindu</v>
+        <v>Christian</v>
       </c>
       <c r="H11" t="str">
         <v>Working</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L11" t="str">
-        <v>Hills, Ernser and Pouros</v>
+        <v>Runolfsson Group</v>
       </c>
       <c r="M11" t="str">
-        <v>Dynamic Response Architect</v>
+        <v>Human Intranet Architect</v>
       </c>
       <c r="N11" t="str">
-        <v>2020-06-03</v>
+        <v>2020-02-25</v>
       </c>
       <c r="O11" t="str">
-        <v>Contractual</v>
+        <v>Permanent</v>
       </c>
       <c r="P11" t="str">
-        <v>Schuppe Inc</v>
+        <v>Schultz, Ryan and Ryan</v>
       </c>
       <c r="Q11" t="str">
         <v>Joint</v>
       </c>
       <c r="R11" t="str">
-        <v>[{"relationship":"Son","is_new_elector":"No","is_student":"No","age":36,"institution_information":{"name_of_institution":"Beatty - DuBuque","state_of_institution":"Arkansas","club":"Kulas, Krajcik and Legros","beneficiary_scheme":["Nitzsche, Yundt and Gutmann","Casper, Schultz and Ebert"]},"associated_association":{"name_of_organization":"Feest - McGlynn","phone":"880-586-4071","in_leadership_role":"No"}}]</v>
+        <v>[{"relationship":"Son","is_new_elector":"Yes","is_student":"Yes","age":27,"institution_information":{"name_of_institution":"Leuschke - Gleichner","state_of_institution":"California","club":"Orn, Rogahn and Hegmann","beneficiary_scheme":["Raynor, Bartoletti and Harvey","Brakus - Zboncak"]},"associated_association":{"name_of_organization":"Smith - Towne","phone":"1-551-646-9765 x61117","in_leadership_role":"Yes"}}]</v>
       </c>
       <c r="S11" t="str">
         <v>Active</v>
       </c>
       <c r="T11" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U11" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V11" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W11" t="str">
         <v>[{"question":"Will you play role in your residing area?","answer":"Yes"},{"question":"Will you be able to organize people to join in a movement?","answer":"Yes"},{"question":"Do you believe in the movement?","answer":"Yes"},{"question":"Can you motivate other family members towards organizational goals?","answer":"Yes"},{"question":"What form of movements attracts you?","answer":"NA"},{"question":"Compliers Note","answer":"NA"}]</v>
